--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>361.299122163608</v>
+        <v>16.90519611135889</v>
       </c>
       <c r="R2">
-        <v>3251.692099472472</v>
+        <v>152.14676500223</v>
       </c>
       <c r="S2">
-        <v>0.01064471485261256</v>
+        <v>0.0006961242506847375</v>
       </c>
       <c r="T2">
-        <v>0.01064471485261256</v>
+        <v>0.0006961242506847374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>887.5513831607725</v>
+        <v>252.0922567670036</v>
       </c>
       <c r="R3">
-        <v>7987.962448446953</v>
+        <v>2268.830310903032</v>
       </c>
       <c r="S3">
-        <v>0.02614933392091126</v>
+        <v>0.01038068604406439</v>
       </c>
       <c r="T3">
-        <v>0.02614933392091126</v>
+        <v>0.01038068604406439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>455.026436080358</v>
+        <v>95.69231913903667</v>
       </c>
       <c r="R4">
-        <v>4095.237924723222</v>
+        <v>861.23087225133</v>
       </c>
       <c r="S4">
-        <v>0.01340614013527161</v>
+        <v>0.003940430120901571</v>
       </c>
       <c r="T4">
-        <v>0.01340614013527161</v>
+        <v>0.00394043012090157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>6367.075168653748</v>
+        <v>1048.883570942117</v>
       </c>
       <c r="R5">
-        <v>57303.67651788374</v>
+        <v>9439.952138479057</v>
       </c>
       <c r="S5">
-        <v>0.1875888853800705</v>
+        <v>0.04319105706126714</v>
       </c>
       <c r="T5">
-        <v>0.1875888853800706</v>
+        <v>0.04319105706126713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>15641.07418469796</v>
@@ -818,10 +818,10 @@
         <v>140769.6676622816</v>
       </c>
       <c r="S6">
-        <v>0.4608225275711437</v>
+        <v>0.6440700820625996</v>
       </c>
       <c r="T6">
-        <v>0.4608225275711437</v>
+        <v>0.6440700820625994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>8018.805871707374</v>
+        <v>5937.233780023712</v>
       </c>
       <c r="R7">
-        <v>72169.25284536637</v>
+        <v>53435.10402021341</v>
       </c>
       <c r="S7">
-        <v>0.236252724478327</v>
+        <v>0.2444841449358905</v>
       </c>
       <c r="T7">
-        <v>0.236252724478327</v>
+        <v>0.2444841449358904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>468.7922939543159</v>
+        <v>59.93044922414278</v>
       </c>
       <c r="R8">
-        <v>4219.130645588843</v>
+        <v>539.374043017285</v>
       </c>
       <c r="S8">
-        <v>0.0138117144164721</v>
+        <v>0.002467823430414059</v>
       </c>
       <c r="T8">
-        <v>0.0138117144164721</v>
+        <v>0.002467823430414058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>1151.614336682089</v>
+        <v>893.6898510052272</v>
       </c>
       <c r="R9">
-        <v>10364.5290301388</v>
+        <v>8043.208659047044</v>
       </c>
       <c r="S9">
-        <v>0.03392924444640721</v>
+        <v>0.03680047091897124</v>
       </c>
       <c r="T9">
-        <v>0.03392924444640721</v>
+        <v>0.03680047091897123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>590.4052174346909</v>
+        <v>339.2379263467483</v>
       </c>
       <c r="R10">
-        <v>5313.646956912218</v>
+        <v>3053.141337120735</v>
       </c>
       <c r="S10">
-        <v>0.01739471479878406</v>
+        <v>0.01396918117520683</v>
       </c>
       <c r="T10">
-        <v>0.01739471479878406</v>
+        <v>0.01396918117520683</v>
       </c>
     </row>
   </sheetData>
